--- a/data/new 3-01/dough_link.xlsx
+++ b/data/new 3-01/dough_link.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kuleuven-my.sharepoint.com/personal/benjamin_zyde_student_kuleuven_be/Documents/AI masterpreof/data/new 3-01/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kuleuven-my.sharepoint.com/personal/benjamin_zyde_student_kuleuven_be/Documents/AI masterpreof/git map/data/new 3-01/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_D4E2F5EF77E01E13D183EA73BB1541C16046521E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D0712B6C-0FD7-44AB-8A43-01BD297CBD33}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_D4E2F5EF77E01E13D183EA73BB1541C16046521E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E418FD9A-978B-4625-A4C8-82684514ED8A}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1557,7 +1557,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -1595,7 +1595,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -1895,7 +1895,8 @@
   <dimension ref="A1:P90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5686,24 +5687,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Category xmlns="6b6b1784-1fc9-4045-a15c-a5e304d7c7ae">5</Category>
-    <DoEID xmlns="6b6b1784-1fc9-4045-a15c-a5e304d7c7ae">Overall</DoEID>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010087435F6899F1B2409B36EB0D707E2E02" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="618935c53e0da55a6ecc0ba98a0ea4fe">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6b6b1784-1fc9-4045-a15c-a5e304d7c7ae" xmlns:ns3="0aff8b30-7e11-4d37-bcca-6732d58cd138" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d124c1185bc2896e9bc906c77e4e1e3b" ns2:_="" ns3:_="">
     <xsd:import namespace="6b6b1784-1fc9-4045-a15c-a5e304d7c7ae"/>
@@ -5910,25 +5893,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B950621A-5E2C-4BA1-A92C-C5D694B6FE53}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="6b6b1784-1fc9-4045-a15c-a5e304d7c7ae"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC9329DA-A4F0-41B8-8604-913E2CE25F9B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Category xmlns="6b6b1784-1fc9-4045-a15c-a5e304d7c7ae">5</Category>
+    <DoEID xmlns="6b6b1784-1fc9-4045-a15c-a5e304d7c7ae">Overall</DoEID>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DBD82888-5B3E-40D3-9D20-9C3421195B3B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5945,4 +5928,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC9329DA-A4F0-41B8-8604-913E2CE25F9B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B950621A-5E2C-4BA1-A92C-C5D694B6FE53}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="6b6b1784-1fc9-4045-a15c-a5e304d7c7ae"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>